--- a/Bases de Dados/Emails.xlsx
+++ b/Bases de Dados/Emails.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Python Impressionador\Projeto_AutomacaoIndicadores\Bases de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Erick\Hashtag\Python\Curso - Projetos\Projeto-Automacao\Bases de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3856DD-4A41-42A6-8CEE-9B800498E7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C51286-477F-4C5B-A6F4-649E3BDDA95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{EE9D8D8A-F7B1-481B-B9DF-10FF6CFE8B3E}"/>
+    <workbookView xWindow="3585" yWindow="-11640" windowWidth="20730" windowHeight="11760" xr2:uid="{EE9D8D8A-F7B1-481B-B9DF-10FF6CFE8B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -180,63 +177,6 @@
     <t>Diretoria</t>
   </si>
   <si>
-    <t>pythonimpressionador+helena@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+alice@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+laura@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+manuela@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+valentina@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+sophia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+isabella@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+luiza@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+lorena@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+miguel@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+arthur@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+heitor@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+bernardo@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+davi@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+lorenzo@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+gabriel@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+pedro@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+benjamin@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+diretoria@gmail.com</t>
-  </si>
-  <si>
     <t>Heloisa</t>
   </si>
   <si>
@@ -255,32 +195,89 @@
     <t>Theo</t>
   </si>
   <si>
-    <t>pythonimpressionador+heloisa@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+julia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+livia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+cecilia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+eloa@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+theo@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+maria_luiza@gmail.com</t>
+    <t>erickspavanii+helena@gmail.com</t>
+  </si>
+  <si>
+    <t>erickspavanii+alice@gmail.com</t>
+  </si>
+  <si>
+    <t>erickspavanii+laura@gmail.com</t>
+  </si>
+  <si>
+    <t>erickspavanii+manuela@gmail.com</t>
+  </si>
+  <si>
+    <t>erickspavanii+valentina@gmail.com</t>
+  </si>
+  <si>
+    <t>erickpavani+sophia@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+isabella@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+heloisa@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+luiza@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+julia@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+lorena@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+livia@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+maria_luiza@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+cecilia@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+eloa@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+miguel@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+arthur@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+heitor@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+bernardo@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+davi@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+theo@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+lorenzo@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+gabriel@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+pedro@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+benjamin@outlook.com</t>
+  </si>
+  <si>
+    <t>erickpavani+diretoria@outlook.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +289,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,9 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -636,19 +642,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D81E77-7AEF-4DB7-8688-DEDDD091CFFB}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -667,11 +673,11 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -679,11 +685,11 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -691,10 +697,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -702,10 +708,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -713,10 +719,10 @@
         <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -724,10 +730,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -735,21 +741,21 @@
         <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -757,21 +763,21 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -779,21 +785,22 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -801,32 +808,32 @@
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -834,10 +841,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -845,10 +852,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -856,10 +863,10 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -867,10 +874,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -878,21 +885,21 @@
         <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -900,10 +907,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -911,10 +918,10 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -922,10 +929,10 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -933,10 +940,10 @@
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -944,7 +951,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -977,5 +984,6 @@
     <hyperlink ref="C14" r:id="rId26" xr:uid="{5FFD0C79-EDBB-417E-98DA-5E77D27BBC40}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>